--- a/BA_04/src/ex_00_DVR_entity.xlsx
+++ b/BA_04/src/ex_00_DVR_entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\Business-and-system-analyses\BA_04\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1D100D-5E6B-49D4-B1E5-7502885DFCAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14174516-15AD-438F-863C-5D3197A248C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6132" yWindow="1740" windowWidth="18948" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>номер</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Номер магазина, Наименование магазина</t>
   </si>
   <si>
-    <t>Номер продукта, наименование</t>
-  </si>
-  <si>
     <t>номер, Имя, фамилия</t>
   </si>
   <si>
@@ -97,6 +94,12 @@
   </si>
   <si>
     <t>номер, наименование</t>
+  </si>
+  <si>
+    <t>Номер продукта, наименование,цена</t>
+  </si>
+  <si>
+    <t>номер, Имя, фамилия, место жительства, телефон</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,13 +479,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -496,7 +499,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -510,7 +513,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -524,7 +527,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -538,7 +541,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -552,7 +555,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
